--- a/biology/Botanique/Tapisciaceae/Tapisciaceae.xlsx
+++ b/biology/Botanique/Tapisciaceae/Tapisciaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tapisciacées sont une famille de plantes dicotylédones contenant deux genres.
 Ce sont des petits arbres à feuilles alternes, stipulées, originaires des régions subtropicales et tropicales des Antilles et d’Amérique du Sud (Huertea), et de Chine (Tapiscia).
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Tapiscia, une anagramme de Pistacia (Anacardiaceae), genre avec lequel le botaniste britannique Daniel Oliver trouva quelques similitudes[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Tapiscia, une anagramme de Pistacia (Anacardiaceae), genre avec lequel le botaniste britannique Daniel Oliver trouva quelques similitudes,.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3], cette famille n'existe pas.
-En classification phylogénétique APG II (2003)[4] la famille est placé dans les Malvidées (Eurosidées II).
-Le Angiosperm Phylogeny Website [18 Avr 2007] place cette famille dans l'ordre Huerteales, choix qui a été confirmée par la classification phylogénétique APG III (2009)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille n'existe pas.
+En classification phylogénétique APG II (2003) la famille est placé dans les Malvidées (Eurosidées II).
+Le Angiosperm Phylogeny Website [18 Avr 2007] place cette famille dans l'ordre Huerteales, choix qui a été confirmée par la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -576,12 +592,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (15 juin 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (15 juin 2010) :
 genre Tapiscia (en) Oliver
-(NCBI  (15 juin 2010)[6] place Huertea dans Crossosomatales → Staphyleaceae)
-Selon Angiosperm Phylogeny Website                        (15 juin 2010)[7], GRIN            (15 juin 2010)[8] et DELTA Angio           (15 juin 2010)[9] :
+(NCBI  (15 juin 2010) place Huertea dans Crossosomatales → Staphyleaceae)
+Selon Angiosperm Phylogeny Website                        (15 juin 2010), GRIN            (15 juin 2010) et DELTA Angio           (15 juin 2010) :
 genre Huertea Ruíz &amp; Pavón
 genre Tapiscia Oliver</t>
         </is>
@@ -611,12 +629,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (15 juin 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (15 juin 2010) :
 genreTapiscia
 Tapiscia sinensis
-Selon GRIN            (15 juin 2010)[8] :
+Selon GRIN            (15 juin 2010) :
 genre Huertea Ruiz &amp; Pav.
 Huertea cubensis Griseb.
 genre Tapiscia Oliv.
